--- a/Leetcode_Blind_75_questions_bank.xlsx
+++ b/Leetcode_Blind_75_questions_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code 75\Git_Repo\Leetcode_Blind_75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A544BDFE-3079-4949-A175-C3D0C8F6581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD02DEB-41CB-4AB3-ADF6-76E55EA8E3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C7AE18C-87D7-44DE-8169-31314B68BFEC}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,8 +975,8 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1016,8 +1016,8 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1047,8 +1047,8 @@
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1108,8 +1108,8 @@
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1189,8 +1189,8 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Leetcode_Blind_75_questions_bank.xlsx
+++ b/Leetcode_Blind_75_questions_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code 75\Git_Repo\Leetcode_Blind_75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD02DEB-41CB-4AB3-ADF6-76E55EA8E3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E988D-D39C-4F33-B0CD-EF68824C6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C7AE18C-87D7-44DE-8169-31314B68BFEC}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Leetcode_Blind_75_questions_bank.xlsx
+++ b/Leetcode_Blind_75_questions_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code 75\Git_Repo\Leetcode_Blind_75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E988D-D39C-4F33-B0CD-EF68824C6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02678E-9F3D-428F-AC7A-605976FAF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C7AE18C-87D7-44DE-8169-31314B68BFEC}"/>
   </bookViews>
@@ -337,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -360,12 +360,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -387,6 +400,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AD67DA-8144-492A-B7F9-345725CED4DF}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1219,7 @@
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1210,7 +1229,7 @@
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
